--- a/Spring_2022/chemRxnEng/HW2_2.xlsx
+++ b/Spring_2022/chemRxnEng/HW2_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehead\school\Spring_2022\chemRxnEng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72EBE633-8D7F-40BB-BA8F-9CA851BC8C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB9B51D-293A-4D57-B70D-97B6BC81AF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{152240B4-B040-4747-B764-FFBA39F9C43F}"/>
   </bookViews>
@@ -454,7 +454,7 @@
                 </c:marker>
                 <c:xVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$1:$A$4</c15:sqref>
@@ -481,7 +481,7 @@
                 </c:xVal>
                 <c:yVal>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$B$1:$B$4</c15:sqref>
@@ -507,7 +507,7 @@
                   </c:numRef>
                 </c:yVal>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-D8EF-4351-AE26-D659E438C847}"/>
                   </c:ext>
@@ -1253,16 +1253,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>542924</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>533399</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1590,12 +1590,12 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R29" sqref="R29"/>
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1607,8 +1607,12 @@
         <f>1/B1</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <f>A1/B1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -1617,11 +1621,15 @@
         <v>4.5499999999999999E-2</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:C10" si="0">1/B2</f>
+        <f t="shared" ref="C2:C4" si="0">1/B2</f>
         <v>21.978021978021978</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2">
+        <f t="shared" ref="E2:E10" si="1">A2/B2</f>
+        <v>4.395604395604396</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>0.4</v>
       </c>
@@ -1633,8 +1641,12 @@
         <f t="shared" si="0"/>
         <v>13.986013986013987</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3">
+        <f t="shared" si="1"/>
+        <v>5.594405594405595</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -1646,8 +1658,12 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -1655,8 +1671,12 @@
         <f>10/60</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -1664,8 +1684,12 @@
         <f>10/60</f>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -1673,8 +1697,12 @@
         <f>6.67/60</f>
         <v>0.11116666666666666</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>6.746626686656672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -1682,8 +1710,12 @@
         <f>5/60</f>
         <v>8.3333333333333329E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>9.6000000000000014</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -1691,14 +1723,22 @@
         <f>4/60</f>
         <v>6.6666666666666666E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>0.9</v>
       </c>
       <c r="B10">
         <f>3.33/60</f>
         <v>5.5500000000000001E-2</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>16.216216216216218</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -1756,13 +1796,13 @@
         <v>6.2433333333333334E-2</v>
       </c>
       <c r="N36">
-        <f>1/B5</f>
+        <f t="shared" ref="N36:N41" si="2">1/B5</f>
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N37">
-        <f>1/B6</f>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
@@ -1772,26 +1812,26 @@
         <v>16.017084890549921</v>
       </c>
       <c r="N38">
-        <f>1/B7</f>
+        <f t="shared" si="2"/>
         <v>8.995502248875562</v>
       </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N39">
-        <f>1/B8</f>
+        <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="N40">
-        <f>1/B9</f>
+        <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N41">
-        <f>1/B10</f>
+        <f t="shared" si="2"/>
         <v>18.018018018018019</v>
       </c>
     </row>

--- a/Spring_2022/chemRxnEng/HW2_2.xlsx
+++ b/Spring_2022/chemRxnEng/HW2_2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JoshWhitehead\school\Spring_2022\chemRxnEng\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\school\Spring_2022\chemRxnEng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB9B51D-293A-4D57-B70D-97B6BC81AF8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD143CE-9D6E-450B-8BAA-764D9D4CF91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{152240B4-B040-4747-B764-FFBA39F9C43F}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{152240B4-B040-4747-B764-FFBA39F9C43F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -34,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>a1</t>
   </si>
@@ -43,6 +41,9 @@
   </si>
   <si>
     <t>a3</t>
+  </si>
+  <si>
+    <t>mol/l/sec</t>
   </si>
 </sst>
 </file>
@@ -189,8 +190,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.26137575763318394"/>
-                  <c:y val="7.7055484343526825E-4"/>
+                  <c:x val="-0.39668741768289795"/>
+                  <c:y val="-0.16609255073399737"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1253,16 +1254,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>514349</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>269874</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>22225</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>260349</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1590,12 +1591,12 @@
   <dimension ref="A1:O41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1612,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -1629,7 +1630,7 @@
         <v>4.395604395604396</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>0.4</v>
       </c>
@@ -1646,7 +1647,7 @@
         <v>5.594405594405595</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -1676,7 +1677,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -1689,7 +1690,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -1702,7 +1703,7 @@
         <v>6.746626686656672</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -1728,7 +1729,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -1741,7 +1742,24 @@
         <v>16.216216216216218</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="C17">
+        <f>0.6-3.6*B3</f>
+        <v>0.34260000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="C19">
+        <f>1+C17</f>
+        <v>1.3426</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1752,7 +1770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A31">
         <f>0.2*B1+0.5*0.2*(B2-B1)</f>
         <v>7.8833333333333342E-3</v>
@@ -1770,7 +1788,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.75">
       <c r="I32">
         <f>1/J32</f>
         <v>6</v>
@@ -1784,13 +1802,13 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
       <c r="G35">
         <f>6*0.6+0.5*0.6*(30-6)</f>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A36">
         <f>SUM(A31:C31)</f>
         <v>6.2433333333333334E-2</v>
@@ -1800,13 +1818,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N37">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
       <c r="A38">
         <f>1/A36</f>
         <v>16.017084890549921</v>
@@ -1816,20 +1834,20 @@
         <v>8.995502248875562</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N39">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
       <c r="B40" s="1"/>
       <c r="N40">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
       <c r="N41">
         <f t="shared" si="2"/>
         <v>18.018018018018019</v>

--- a/Spring_2022/chemRxnEng/HW2_2.xlsx
+++ b/Spring_2022/chemRxnEng/HW2_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\school\Spring_2022\chemRxnEng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DD143CE-9D6E-450B-8BAA-764D9D4CF91B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C4AFE2-8BCF-4FF3-8F1A-F237497C8E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{152240B4-B040-4747-B764-FFBA39F9C43F}"/>
   </bookViews>
@@ -32,16 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>a1</t>
-  </si>
-  <si>
-    <t>a2</t>
-  </si>
-  <si>
-    <t>a3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>mol/l/sec</t>
   </si>
@@ -185,13 +176,13 @@
               <a:effectLst/>
             </c:spPr>
             <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.39668741768289795"/>
-                  <c:y val="-0.16609255073399737"/>
+                  <c:x val="-0.14322320386525794"/>
+                  <c:y val="2.4748255048560569E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -269,17 +260,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>30</c:v>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>21.978021978021978</c:v>
+                <c:pt idx="6">
+                  <c:v>8.995502248875562</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>13.986013986013987</c:v>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
+                <c:pt idx="8">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>18.018018018018019</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1254,16 +1248,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>269874</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>22225</xdr:rowOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>260349</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1588,13 +1582,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A41F37D-DFE0-4E34-8FB9-21A2767A4785}">
-  <dimension ref="A1:O41"/>
+  <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.75">
       <c r="A1">
@@ -1604,10 +1601,6 @@
         <f>2/60</f>
         <v>3.3333333333333333E-2</v>
       </c>
-      <c r="C1">
-        <f>1/B1</f>
-        <v>30</v>
-      </c>
       <c r="E1">
         <f>A1/B1</f>
         <v>0</v>
@@ -1621,12 +1614,8 @@
         <f>2.73/60</f>
         <v>4.5499999999999999E-2</v>
       </c>
-      <c r="C2">
-        <f t="shared" ref="C2:C4" si="0">1/B2</f>
-        <v>21.978021978021978</v>
-      </c>
       <c r="E2">
-        <f t="shared" ref="E2:E10" si="1">A2/B2</f>
+        <f>A2/B2</f>
         <v>4.395604395604396</v>
       </c>
     </row>
@@ -1638,12 +1627,8 @@
         <f>4.29/60</f>
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="C3">
-        <f t="shared" si="0"/>
-        <v>13.986013986013987</v>
-      </c>
       <c r="E3">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E2:E10" si="0">A3/B3</f>
         <v>5.594405594405595</v>
       </c>
     </row>
@@ -1655,12 +1640,8 @@
         <f>10/60</f>
         <v>0.16666666666666666</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <f t="shared" si="1"/>
         <v>3.6</v>
       </c>
     </row>
@@ -1673,7 +1654,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.9000000000000004</v>
       </c>
     </row>
@@ -1685,8 +1666,12 @@
         <f>10/60</f>
         <v>0.16666666666666666</v>
       </c>
+      <c r="C6">
+        <f t="shared" ref="C1:C10" si="1">1/B6</f>
+        <v>6</v>
+      </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4.2</v>
       </c>
     </row>
@@ -1698,8 +1683,12 @@
         <f>6.67/60</f>
         <v>0.11116666666666666</v>
       </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>8.995502248875562</v>
+      </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6.746626686656672</v>
       </c>
     </row>
@@ -1711,8 +1700,12 @@
         <f>5/60</f>
         <v>8.3333333333333329E-2</v>
       </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
       <c r="E8">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9.6000000000000014</v>
       </c>
     </row>
@@ -1724,8 +1717,12 @@
         <f>4/60</f>
         <v>6.6666666666666666E-2</v>
       </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
       <c r="E9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12.75</v>
       </c>
     </row>
@@ -1737,37 +1734,42 @@
         <f>3.33/60</f>
         <v>5.5500000000000001E-2</v>
       </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>18.018018018018019</v>
+      </c>
       <c r="E10">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16.216216216216218</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.75">
       <c r="B12" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="C17">
-        <f>0.6-3.6*B3</f>
-        <v>0.34260000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="C19">
-        <f>1+C17</f>
-        <v>1.3426</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.75">
-      <c r="A30" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2</v>
+      <c r="A17">
+        <f>60.081*0.85-36.062</f>
+        <v>15.006850000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A20">
+        <f>3.6/(-40*0.4+30)</f>
+        <v>0.25714285714285717</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A21">
+        <f>A20+0.6</f>
+        <v>0.85714285714285721</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="B23">
+        <f>60*0.4-36+0.6</f>
+        <v>-11.4</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.75">
@@ -1802,56 +1804,26 @@
         <v>0.108</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.75">
       <c r="G35">
         <f>6*0.6+0.5*0.6*(30-6)</f>
         <v>10.799999999999999</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A36">
         <f>SUM(A31:C31)</f>
         <v>6.2433333333333334E-2</v>
       </c>
-      <c r="N36">
-        <f t="shared" ref="N36:N41" si="2">1/B5</f>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="N37">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.75">
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.75">
       <c r="A38">
         <f>1/A36</f>
         <v>16.017084890549921</v>
       </c>
-      <c r="N38">
-        <f t="shared" si="2"/>
-        <v>8.995502248875562</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="N39">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.75">
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.75">
       <c r="B40" s="1"/>
-      <c r="N40">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.75">
-      <c r="N41">
-        <f t="shared" si="2"/>
-        <v>18.018018018018019</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Spring_2022/chemRxnEng/HW2_2.xlsx
+++ b/Spring_2022/chemRxnEng/HW2_2.xlsx
@@ -8,13 +8,99 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joshl\school\Spring_2022\chemRxnEng\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3C4AFE2-8BCF-4FF3-8F1A-F237497C8E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79223550-B2E7-42DD-B3FE-1D91F0692F65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10980" xr2:uid="{152240B4-B040-4747-B764-FFBA39F9C43F}"/>
+    <workbookView xWindow="8990" yWindow="1665" windowWidth="12875" windowHeight="8170" activeTab="3" xr2:uid="{152240B4-B040-4747-B764-FFBA39F9C43F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="solver_adj" localSheetId="0" hidden="1">Sheet1!$J$3</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Sheet2!$I$8</definedName>
+    <definedName name="solver_adj" localSheetId="2" hidden="1">Sheet3!$F$7</definedName>
+    <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
+    <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
+    <definedName name="solver_mrt" localSheetId="0" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
+    <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_opt" localSheetId="0" hidden="1">Sheet1!$C$20</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Sheet2!$H$8</definedName>
+    <definedName name="solver_opt" localSheetId="2" hidden="1">Sheet3!$E$11</definedName>
+    <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
+    <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
+    <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
+    <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
+    <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
+    <definedName name="solver_tim" localSheetId="0" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
+    <definedName name="solver_tol" localSheetId="0" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
+    <definedName name="solver_typ" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_typ" localSheetId="2" hidden="1">3</definedName>
+    <definedName name="solver_val" localSheetId="0" hidden="1">10.8</definedName>
+    <definedName name="solver_val" localSheetId="1" hidden="1">80</definedName>
+    <definedName name="solver_val" localSheetId="2" hidden="1">0.767041</definedName>
+    <definedName name="solver_ver" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,9 +118,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>mol/l/sec</t>
+  </si>
+  <si>
+    <t>kmax</t>
+  </si>
+  <si>
+    <t>km</t>
+  </si>
+  <si>
+    <t>xai</t>
+  </si>
+  <si>
+    <t>xai-1</t>
+  </si>
+  <si>
+    <t>m. (g/hr)</t>
+  </si>
+  <si>
+    <t>F (mol/hr)</t>
+  </si>
+  <si>
+    <t>ca0 (mol/L)</t>
+  </si>
+  <si>
+    <t>m. grass (g/hr)</t>
+  </si>
+  <si>
+    <t>V (L)</t>
+  </si>
+  <si>
+    <t>one CSTR</t>
+  </si>
+  <si>
+    <t>one PFR</t>
+  </si>
+  <si>
+    <t>stomach</t>
+  </si>
+  <si>
+    <t>vb</t>
+  </si>
+  <si>
+    <t>va</t>
+  </si>
+  <si>
+    <t>FA0</t>
+  </si>
+  <si>
+    <t>ca</t>
+  </si>
+  <si>
+    <t>FA0/CA0^2</t>
+  </si>
+  <si>
+    <t>vb*cb</t>
+  </si>
+  <si>
+    <t>CA0</t>
   </si>
 </sst>
 </file>
@@ -50,12 +193,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -70,9 +219,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1584,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A41F37D-DFE0-4E34-8FB9-21A2767A4785}">
   <dimension ref="A1:O40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
@@ -1593,7 +1744,7 @@
     <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A1">
         <v>0</v>
       </c>
@@ -1606,7 +1757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A2">
         <v>0.2</v>
       </c>
@@ -1619,7 +1770,7 @@
         <v>4.395604395604396</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A3">
         <v>0.4</v>
       </c>
@@ -1628,11 +1779,26 @@
         <v>7.1499999999999994E-2</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E2:E10" si="0">A3/B3</f>
+        <f t="shared" ref="E3:E10" si="0">A3/B3</f>
         <v>5.594405594405595</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="G3">
+        <f>-20*0.6^2+30*0.6</f>
+        <v>10.8</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <f>60.1/2</f>
+        <v>30.05</v>
+      </c>
+      <c r="O3">
+        <f>30.05*0.84^2-36.1*0.84+10.842</f>
+        <v>1.7212799999999948</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -1644,8 +1810,24 @@
         <f t="shared" si="0"/>
         <v>3.6</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+      <c r="G4">
+        <f>-20*0.84^2+30*0.84-10.8</f>
+        <v>0.28800000000000026</v>
+      </c>
+      <c r="I4">
+        <f>0.167</f>
+        <v>0.16700000000000001</v>
+      </c>
+      <c r="J4">
+        <f>30.05*J3^2-36.1*J3+10.842</f>
+        <v>1.1940000000000008</v>
+      </c>
+      <c r="L4">
+        <f>30.05*0.6^2-36.1*0.6</f>
+        <v>-10.842000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A5">
         <v>0.65</v>
       </c>
@@ -1658,7 +1840,7 @@
         <v>3.9000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A6">
         <v>0.7</v>
       </c>
@@ -1667,7 +1849,7 @@
         <v>0.16666666666666666</v>
       </c>
       <c r="C6">
-        <f t="shared" ref="C1:C10" si="1">1/B6</f>
+        <f t="shared" ref="C6:C10" si="1">1/B6</f>
         <v>6</v>
       </c>
       <c r="E6">
@@ -1675,7 +1857,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A7">
         <v>0.75</v>
       </c>
@@ -1692,7 +1874,7 @@
         <v>6.746626686656672</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A8">
         <v>0.8</v>
       </c>
@@ -1709,7 +1891,7 @@
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A9">
         <v>0.85</v>
       </c>
@@ -1726,7 +1908,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A10">
         <v>0.9</v>
       </c>
@@ -1743,9 +1925,17 @@
         <v>16.216216216216218</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A12">
+        <v>0.84494893143590577</v>
+      </c>
       <c r="B12" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A15">
+        <v>0.4</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.75">
@@ -1754,11 +1944,21 @@
         <v>15.006850000000007</v>
       </c>
     </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="C19">
+        <f>(-40*A3+30)*(A3-0.6)</f>
+        <v>-2.7999999999999994</v>
+      </c>
+    </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A20">
         <f>3.6/(-40*0.4+30)</f>
         <v>0.25714285714285717</v>
       </c>
+      <c r="C20">
+        <f>(60*A12-36)*(A12-0.6)</f>
+        <v>3.5999987406955252</v>
+      </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A21">
@@ -1772,6 +1972,18 @@
         <v>-11.4</v>
       </c>
     </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A24">
+        <f>(A15-0.6)/A26</f>
+        <v>-1.4285714285714282E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.75">
+      <c r="A26">
+        <f>-40*A15+30</f>
+        <v>14</v>
+      </c>
+    </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.75">
       <c r="A31">
         <f>0.2*B1+0.5*0.2*(B2-B1)</f>
@@ -1829,4 +2041,452 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26B4CE01-B5EC-4371-9CCF-463CB634CAB8}">
+  <dimension ref="A1:J8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <cols>
+    <col min="4" max="4" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.6796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2.8</v>
+      </c>
+      <c r="C2">
+        <v>14</v>
+      </c>
+      <c r="D2">
+        <f>170*453.592/8</f>
+        <v>9638.83</v>
+      </c>
+      <c r="E2">
+        <f>D2*0.105</f>
+        <v>1012.07715</v>
+      </c>
+      <c r="F2">
+        <f>E2/162</f>
+        <v>6.2473898148148148</v>
+      </c>
+      <c r="G2" s="3">
+        <f>1.11*1000*0.105/162</f>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="H2">
+        <f>F2*(I2-J2)*(C2+G2*(1-I2))/B2/G2/(1-I2)</f>
+        <v>19.999996375017439</v>
+      </c>
+      <c r="I2">
+        <v>0.30787016782158827</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.8</v>
+      </c>
+      <c r="C3">
+        <v>14</v>
+      </c>
+      <c r="D3">
+        <f>D2</f>
+        <v>9638.83</v>
+      </c>
+      <c r="E3">
+        <f>E2</f>
+        <v>1012.07715</v>
+      </c>
+      <c r="F3">
+        <f>F2</f>
+        <v>6.2473898148148148</v>
+      </c>
+      <c r="G3" s="3">
+        <f>G2</f>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="H3">
+        <f>F3*(I3-J3)*(C3+G3*(1-I3))/B3/G3/(1-I3)</f>
+        <v>19.999998008089577</v>
+      </c>
+      <c r="I3">
+        <v>0.52253907280967804</v>
+      </c>
+      <c r="J3">
+        <f>I2</f>
+        <v>0.30787016782158827</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.8</v>
+      </c>
+      <c r="C4">
+        <v>14</v>
+      </c>
+      <c r="D4">
+        <f t="shared" ref="D4:D5" si="0">D3</f>
+        <v>9638.83</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:E5" si="1">E3</f>
+        <v>1012.07715</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F5" si="2">F3</f>
+        <v>6.2473898148148148</v>
+      </c>
+      <c r="G4" s="3">
+        <f t="shared" ref="G4:G5" si="3">G3</f>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="H4">
+        <f>F4*(I4-J4)*(C4+G4*(1-I4))/B4/G4/(1-I4)</f>
+        <v>19.99998817471544</v>
+      </c>
+      <c r="I4">
+        <v>0.67139354969475451</v>
+      </c>
+      <c r="J4">
+        <f>I3</f>
+        <v>0.52253907280967804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2.8</v>
+      </c>
+      <c r="C5">
+        <v>14</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>9638.83</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>1012.07715</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="2"/>
+        <v>6.2473898148148148</v>
+      </c>
+      <c r="G5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="H5">
+        <f>F5*(I5-J5)*(C5+G5*(1-I5))/B5/G5/(1-I5)</f>
+        <v>19.999997922804589</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0.77420845749872758</v>
+      </c>
+      <c r="J5">
+        <f>I4</f>
+        <v>0.67139354969475451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="G6" s="3"/>
+      <c r="I6" s="3"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>2.8</v>
+      </c>
+      <c r="C7">
+        <v>14</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7" si="4">D5</f>
+        <v>9638.83</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7" si="5">E5</f>
+        <v>1012.07715</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ref="F7" si="6">F5</f>
+        <v>6.2473898148148148</v>
+      </c>
+      <c r="G7" s="3">
+        <f t="shared" ref="G7" si="7">G5</f>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="H7">
+        <f>F7*(I7-J7)*(C7+G7*(1-I7))/B7/G7/(1-I7)</f>
+        <v>79.999937899127232</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.64405824444495741</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.75">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>2.8</v>
+      </c>
+      <c r="C8">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8" si="8">D7</f>
+        <v>9638.83</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8" si="9">E7</f>
+        <v>1012.07715</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ref="F8" si="10">F7</f>
+        <v>6.2473898148148148</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" ref="G8" si="11">G7</f>
+        <v>0.71944444444444444</v>
+      </c>
+      <c r="H8">
+        <f>-F2/B2/G2*((C2*LN(1-I8)+G2*(1-I8))-G2)</f>
+        <v>80.00003585005318</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0.83464434833565304</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36B67009-B2B2-4C41-9A8D-E481B40BB020}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="D6:G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A1">
+        <f>10*B1/0.07/((10/8)*(1-B1))^2</f>
+        <v>399.99983478831308</v>
+      </c>
+      <c r="B1">
+        <v>0.62272421065613492</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <f>10/0.07/(10/8)^2/(1-B2)</f>
+        <v>599.99991650758454</v>
+      </c>
+      <c r="B2">
+        <v>0.84761902641462172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <f>A1*0.07*(1-B2)^2/B2</f>
+        <v>0.76704111435379585</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="D7">
+        <v>0.5</v>
+      </c>
+      <c r="E7">
+        <v>0.7</v>
+      </c>
+      <c r="F7">
+        <v>3.7546884709767308</v>
+      </c>
+      <c r="G7">
+        <f>E7*2</f>
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="G10">
+        <f>D7*F7/2</f>
+        <v>0.93867211774418269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="E11">
+        <f>(D7+E7)^2/D7/F7</f>
+        <v>0.76704100014209897</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14">
+        <f>D7*F7</f>
+        <v>1.8773442354883654</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
+        <f>B14/(D7+E7)</f>
+        <v>1.5644535295736379</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.75">
+      <c r="A19">
+        <f>B14*B2/0.07/B15^2/(1-B2)^2</f>
+        <v>399.99977522871575</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{920D02AD-3476-4A68-B6E2-B9B317FE7EAF}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A1">
+        <f>7*0.95/0.9/(1-0.95)</f>
+        <v>147.77777777777763</v>
+      </c>
+      <c r="C1">
+        <f>750*(A1-A2)</f>
+        <v>93358.228404268273</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A2">
+        <f>-7/0.9*LN(1-0.95)</f>
+        <v>23.300139905419922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A4">
+        <f>7*10^3*0.95*(1-0.95)^2/0.6</f>
+        <v>27.708333333333382</v>
+      </c>
+      <c r="C4">
+        <f>750*(A5-A4)</f>
+        <v>2895520.8333333326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A5">
+        <f>7*10^3/0.6*(0.95^3/3-0.95^2+0.95)</f>
+        <v>3888.4027777777769</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="A7">
+        <f>7*10*0.95/0.4</f>
+        <v>166.25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.75">
+      <c r="B11">
+        <f>1/3^-2</f>
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>